--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>19374300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>16212800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>16212800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>20549900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>20549900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6313700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>6313700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12036600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>12036600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>13298500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>13298500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8095600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>8095600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>9578800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>9578800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3717800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>3717800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>8096200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>8096200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>9483700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>9483700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>12724800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>12724800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>40213400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>40213400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>19741800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>35245200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>35245200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>19742900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MAYBANK</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>13108200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>13108200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11821100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>11821100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10783900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>10783900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6437800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>6437800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>11487300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>11487300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>6165000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6601700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>6601700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4716300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>4716300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8046800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86863,6 +86863,41 @@
         <v>8046800</v>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>8394000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86898,6 +86898,41 @@
         <v>8394000</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>9181400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86933,6 +86933,41 @@
         <v>9181400</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>5792600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86968,6 +86968,41 @@
         <v>5792600</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>5284400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87003,6 +87003,41 @@
         <v>5284400</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>6118300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2476"/>
+  <dimension ref="A1:I2477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87038,6 +87038,41 @@
         <v>6118300</v>
       </c>
     </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>4301000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2477"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87073,6 +87073,41 @@
         <v>4301000</v>
       </c>
     </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>3891500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87108,6 +87108,41 @@
         <v>3891500</v>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>20145500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87143,6 +87143,41 @@
         <v>20145500</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>8861300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87178,6 +87178,41 @@
         <v>8861300</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>11244600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87213,6 +87213,41 @@
         <v>11244600</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2482" t="n">
+        <v>5832400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87248,6 +87248,41 @@
         <v>5832400</v>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>11332500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87283,6 +87283,41 @@
         <v>11332500</v>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>17115600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87318,6 +87318,41 @@
         <v>17115600</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>3999300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87353,6 +87353,41 @@
         <v>3999300</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>7940100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87388,6 +87388,41 @@
         <v>7940100</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>24600700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87423,6 +87423,41 @@
         <v>24600700</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2488" t="n">
+        <v>27561400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87458,6 +87458,41 @@
         <v>27561400</v>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>13016200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87493,6 +87493,41 @@
         <v>13016200</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>7281000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87528,6 +87528,41 @@
         <v>7281000</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>6030100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87563,6 +87563,41 @@
         <v>6030100</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>9569600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87598,6 +87598,41 @@
         <v>9569600</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>5214400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87633,6 +87633,41 @@
         <v>5214400</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>6100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87668,6 +87668,41 @@
         <v>6100000</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>4261000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87703,6 +87703,41 @@
         <v>4261000</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>21238100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87738,6 +87738,76 @@
         <v>21238100</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>6994500</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>6594800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2498"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87808,6 +87808,41 @@
         <v>6594800</v>
       </c>
     </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>9226700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87843,6 +87843,111 @@
         <v>9226700</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>5666300</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>2442700</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>12046500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87948,6 +87948,41 @@
         <v>12046500</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>24227700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87983,6 +87983,41 @@
         <v>24227700</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>44361600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5161.xlsx
+++ b/data/5161.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88018,6 +88018,111 @@
         <v>44361600</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>13244400</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>8572300</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>5161</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>21126300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
